--- a/data/TVN - PROGRESS Report.xlsx
+++ b/data/TVN - PROGRESS Report.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="79">
   <si>
     <t>Financial Report - SUMMARY Report</t>
   </si>
@@ -62,7 +62,7 @@
     <t>TVN funds Spent</t>
   </si>
   <si>
-    <t> Total TVN Spent amount</t>
+    <t>Total TVN Spent amount</t>
   </si>
   <si>
     <t>Cash Contributions</t>
@@ -83,19 +83,19 @@
     <t>1) Salaries to students (including benefits)</t>
   </si>
   <si>
-    <t>    a) Bachelor's</t>
+    <t>a) Bachelor's</t>
   </si>
   <si>
-    <t>    b) Master's</t>
+    <t>b) Master's</t>
   </si>
   <si>
-    <t>    c) Doctorate</t>
+    <t>c) Doctorate</t>
   </si>
   <si>
     <t>2) Salaries to non-students (including benefits)</t>
   </si>
   <si>
-    <t>    a) Postdoctoral</t>
+    <t>a) Postdoctoral</t>
   </si>
   <si>
     <r>
@@ -128,16 +128,16 @@
     <t>4) *Professional &amp; Tech. Services/contracts</t>
   </si>
   <si>
-    <t>5) *Equipment </t>
+    <t>5) *Equipment</t>
   </si>
   <si>
     <t>6) *Materials, supplies &amp; other expenditures</t>
   </si>
   <si>
-    <t>8) *Travel</t>
+    <t>7) *Travel</t>
   </si>
   <si>
-    <t>Total Expenditures Incurred </t>
+    <t>Total Expenditures Incurred</t>
   </si>
   <si>
     <t>Project Totals</t>
@@ -158,10 +158,10 @@
     <t>$ Amount</t>
   </si>
   <si>
-    <t>    b) Other</t>
+    <t>b) Other</t>
   </si>
   <si>
-    <t>      Explanation of Other category:                                                                                                                                                                                                                                </t>
+    <t>Explanation of Other category:</t>
   </si>
   <si>
     <t>4) Professional &amp; Tech. Services/contracts</t>
@@ -179,7 +179,7 @@
     <t>[Enter Service Name]</t>
   </si>
   <si>
-    <t>   Explanation: </t>
+    <t>Explanation:</t>
   </si>
   <si>
     <t>5) Equipment (including Taxes, shipping)</t>
@@ -188,16 +188,13 @@
     <t>[Enter Equipment Name]</t>
   </si>
   <si>
-    <t>   Explanation:  </t>
-  </si>
-  <si>
     <t>6) Materials, supplies &amp; other (including Taxes, shipping)</t>
   </si>
   <si>
     <t>[Enter Expense Name]</t>
   </si>
   <si>
-    <t>8) Travel</t>
+    <t>7) Travel</t>
   </si>
   <si>
     <t>No. of Trip</t>
@@ -212,16 +209,13 @@
     <t>[Enter Traveler's Name]</t>
   </si>
   <si>
-    <t>  Explanation: </t>
-  </si>
-  <si>
     <t>TVN funds spent Total:</t>
   </si>
   <si>
     <t>TVN funds spent total from Summary Tab</t>
   </si>
   <si>
-    <t>Discrepancy Check (should be zero) </t>
+    <t>Discrepancy Check (should be zero)</t>
   </si>
   <si>
     <t>Supporting Detailed Information for Matching (Cash/In-kind) Contributions from Internal/External sources</t>
@@ -274,25 +268,25 @@
     <t>2) Salaries to non-students (incl. benefits)</t>
   </si>
   <si>
-    <t>   Explanation on Other:The services provided by the Information Scientist were all in-kind.</t>
+    <t>Explanation on Other:The services provided by the Information Scientist were all in-kind.</t>
   </si>
   <si>
-    <t>   Explanation on Other:</t>
+    <t>Explanation on Other:</t>
   </si>
   <si>
-    <t>   Explanation:  Computers and printers used in-kind at TRI, UHN</t>
+    <t>Explanation:  Computers and printers used in-kind at TRI, UHN</t>
   </si>
   <si>
-    <t>   Explanation: Initial printing costs were provided in-kind by the HK Department</t>
+    <t>Explanation: Initial printing costs were provided in-kind by the HK Department</t>
   </si>
   <si>
     <t>6) Materials, supplies &amp; other (incl. Taxes, shipping)</t>
   </si>
   <si>
-    <t>   Explanation:  Long distances calls between co-Pis and with HQPs</t>
+    <t>Explanation:  Long distances calls between co-Pis and with HQPs</t>
   </si>
   <si>
-    <t>   Destination/Purposes: </t>
+    <t>Destination/Purposes:</t>
   </si>
   <si>
     <t>Cash Contributions (costs incurred) Total :</t>
@@ -337,13 +331,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="@"/>
-    <numFmt numFmtId="168" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="DD/MMM/YY"/>
-    <numFmt numFmtId="170" formatCode="DD/MMM"/>
-    <numFmt numFmtId="171" formatCode="#,##0;[RED]\-#,##0"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="DD/MMM/YY"/>
+    <numFmt numFmtId="168" formatCode="DD/MMM"/>
+    <numFmt numFmtId="169" formatCode="#,##0;[RED]\-#,##0"/>
+    <numFmt numFmtId="170" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_(\$* #,##0_);_(\$* \(#,##0\);_(\$* \-_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -369,12 +363,6 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -386,6 +374,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -948,7 +942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -967,26 +961,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,19 +980,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1016,7 +1000,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1024,15 +1008,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1044,19 +1028,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1064,7 +1048,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1128,39 +1112,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="2" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1168,27 +1152,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="10" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1196,15 +1180,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1216,346 +1200,343 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="16" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="18" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="19" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="20" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="21" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="21" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="22" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="23" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="24" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="23" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="24" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="25" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="26" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="27" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="27" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="28" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="28" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="19" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="19" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="24" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="24" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="29" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="29" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="30" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="30" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="31" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="31" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="32" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="32" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="33" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="33" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="34" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="34" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="35" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="35" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="5" borderId="36" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="36" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="3" borderId="37" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="3" borderId="37" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="38" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="38" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="22" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="22" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="40" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="40" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="41" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="41" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="42" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="43" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="39" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="42" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="43" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="26" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="26" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="44" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="44" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="45" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="45" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="44" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="44" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="46" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="46" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="47" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="47" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="48" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="48" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="49" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="49" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="50" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="50" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="5" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="42" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="43" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="43" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="51" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="51" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="48" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="48" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="48" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="48" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="49" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="49" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="52" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="52" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="53" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="53" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="17" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="17" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="54" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="54" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="55" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="55" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="56" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="56" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="57" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="57" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="5" fillId="5" borderId="58" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="5" borderId="58" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Comma 2" xfId="20" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Currency 2" xfId="21" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="22" builtinId="54" customBuiltin="true"/>
-    <cellStyle name="Normal 3" xfId="23" builtinId="54" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Excel Built-in Excel Built-in Normal 3" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1626,10 +1607,10 @@
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="1:28"/>
+  <dimension ref="1:36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -4033,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="24.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="33" t="s">
         <v>30</v>
       </c>
@@ -4123,6 +4104,8 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="A1:H1"/>
@@ -4169,7 +4152,7 @@
   <dimension ref="1:36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5376,7 +5359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="79" t="s">
         <v>45</v>
       </c>
@@ -5390,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="79" t="s">
         <v>45</v>
       </c>
@@ -5404,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="79" t="s">
         <v>45</v>
       </c>
@@ -5418,7 +5401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="67" customFormat="true" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="74" t="s">
         <v>46</v>
       </c>
@@ -5427,7 +5410,7 @@
       <c r="D16" s="74"/>
       <c r="E16" s="74"/>
     </row>
-    <row r="17" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="78" t="s">
         <v>47</v>
       </c>
@@ -5442,7 +5425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="79" t="s">
         <v>48</v>
       </c>
@@ -5456,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="79" t="s">
         <v>48</v>
       </c>
@@ -5470,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="79" t="s">
         <v>48</v>
       </c>
@@ -5484,18 +5467,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" s="67" customFormat="true" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="74" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B21" s="74"/>
       <c r="C21" s="74"/>
       <c r="D21" s="74"/>
       <c r="E21" s="74"/>
     </row>
-    <row r="22" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" s="65" t="s">
         <v>42</v>
@@ -5508,9 +5491,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="69"/>
       <c r="C23" s="72"/>
@@ -5522,9 +5505,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="69"/>
       <c r="C24" s="72"/>
@@ -5536,9 +5519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="69"/>
       <c r="C25" s="72"/>
@@ -5550,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" s="67" customFormat="true" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="54.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="74" t="s">
         <v>46</v>
       </c>
@@ -5559,26 +5542,26 @@
       <c r="D26" s="74"/>
       <c r="E26" s="74"/>
     </row>
-    <row r="27" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="C27" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="D27" s="65" t="s">
         <v>54</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>55</v>
       </c>
       <c r="E27" s="66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="81"/>
       <c r="C28" s="81"/>
@@ -5590,9 +5573,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="81"/>
       <c r="C29" s="81"/>
@@ -5604,9 +5587,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="81"/>
       <c r="C30" s="81"/>
@@ -5618,9 +5601,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
@@ -5632,18 +5615,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="67" customFormat="true" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="74" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B32" s="74"/>
       <c r="C32" s="74"/>
       <c r="D32" s="74"/>
       <c r="E32" s="74"/>
     </row>
-    <row r="33" s="67" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="82"/>
       <c r="C33" s="82"/>
@@ -5653,16 +5636,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" s="67" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="84"/>
       <c r="B34" s="0"/>
       <c r="C34" s="0"/>
       <c r="D34" s="0"/>
       <c r="E34" s="0"/>
     </row>
-    <row r="35" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="85" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" s="85"/>
       <c r="C35" s="85"/>
@@ -5672,9 +5655,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" s="67" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B36" s="87"/>
       <c r="C36" s="87"/>
@@ -5714,8 +5697,8 @@
   </sheetPr>
   <dimension ref="1:36"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5757,7 +5740,7 @@
   <sheetData>
     <row r="1" s="60" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B1" s="89"/>
       <c r="C1" s="89"/>
@@ -5767,7 +5750,7 @@
     </row>
     <row r="2" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6798,22 +6781,22 @@
         <v>11</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C3" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="95"/>
       <c r="E3" s="95"/>
       <c r="F3" s="95"/>
       <c r="G3" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="95"/>
       <c r="J3" s="95"/>
       <c r="K3" s="94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
@@ -7831,41 +7814,41 @@
     </row>
     <row r="4" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="96" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
       <c r="D4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="E4" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="G4" s="98"/>
       <c r="H4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="K4" s="98"/>
       <c r="L4" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="N4" s="99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="68" t="s">
         <v>21</v>
       </c>
@@ -7904,7 +7887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="68" t="s">
         <v>22</v>
       </c>
@@ -7943,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="68" t="s">
         <v>23</v>
       </c>
@@ -7982,9 +7965,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="67" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="103"/>
       <c r="C8" s="104"/>
@@ -8000,7 +7983,7 @@
       <c r="M8" s="72"/>
       <c r="N8" s="105"/>
     </row>
-    <row r="9" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="68" t="s">
         <v>25</v>
       </c>
@@ -8039,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="68" t="s">
         <v>39</v>
       </c>
@@ -8076,29 +8059,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" s="67" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="106"/>
       <c r="B11" s="107"/>
       <c r="C11" s="108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="108"/>
       <c r="E11" s="108"/>
       <c r="F11" s="108"/>
       <c r="G11" s="108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="K11" s="108" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L11" s="108"/>
       <c r="M11" s="108"/>
       <c r="N11" s="108"/>
     </row>
-    <row r="12" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
         <v>27</v>
       </c>
@@ -8128,43 +8111,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="112" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="113"/>
       <c r="C13" s="114"/>
       <c r="D13" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="G13" s="114"/>
       <c r="H13" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="I13" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="K13" s="114"/>
       <c r="L13" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="N13" s="99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="115"/>
       <c r="B14" s="116"/>
       <c r="C14" s="117" t="s">
@@ -8207,7 +8190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="115"/>
       <c r="B15" s="116"/>
       <c r="C15" s="117" t="s">
@@ -8250,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" s="67" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="119"/>
       <c r="B16" s="120"/>
       <c r="C16" s="108" t="s">
@@ -8272,43 +8255,43 @@
       <c r="M16" s="108"/>
       <c r="N16" s="108"/>
     </row>
-    <row r="17" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="112" t="s">
         <v>47</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="114"/>
       <c r="D17" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="G17" s="114"/>
       <c r="H17" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="I17" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="K17" s="114"/>
       <c r="L17" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N17" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="N17" s="99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="115"/>
       <c r="B18" s="116"/>
       <c r="C18" s="117" t="s">
@@ -8347,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="115"/>
       <c r="B19" s="116"/>
       <c r="C19" s="117" t="s">
@@ -8390,17 +8373,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" s="67" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="119"/>
       <c r="B20" s="120"/>
       <c r="C20" s="108" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="108"/>
       <c r="E20" s="108"/>
       <c r="F20" s="108"/>
       <c r="G20" s="108" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="108"/>
       <c r="I20" s="108"/>
@@ -8412,47 +8395,47 @@
       <c r="M20" s="108"/>
       <c r="N20" s="108"/>
     </row>
-    <row r="21" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="112" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B21" s="113"/>
       <c r="C21" s="114"/>
       <c r="D21" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="G21" s="114"/>
       <c r="H21" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="K21" s="114"/>
       <c r="L21" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N21" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="N21" s="99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="115"/>
       <c r="B22" s="116"/>
       <c r="C22" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="70" t="n">
         <v>0</v>
@@ -8465,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H22" s="70" t="n">
         <v>0</v>
@@ -8478,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L22" s="70" t="n">
         <v>0</v>
@@ -8491,11 +8474,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="115"/>
       <c r="B23" s="116"/>
       <c r="C23" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="70" t="n">
         <v>0</v>
@@ -8508,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H23" s="70" t="n">
         <v>0</v>
@@ -8521,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="117" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L23" s="70" t="n">
         <v>0</v>
@@ -8534,7 +8517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="67" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="119"/>
       <c r="B24" s="120"/>
       <c r="C24" s="108" t="s">
@@ -8544,7 +8527,7 @@
       <c r="E24" s="108"/>
       <c r="F24" s="108"/>
       <c r="G24" s="108" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H24" s="108"/>
       <c r="I24" s="108"/>
@@ -8556,47 +8539,47 @@
       <c r="M24" s="108"/>
       <c r="N24" s="108"/>
     </row>
-    <row r="25" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="121" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="113"/>
       <c r="C25" s="114"/>
       <c r="D25" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="E25" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="G25" s="114"/>
       <c r="H25" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="J25" s="99" t="s">
         <v>66</v>
-      </c>
-      <c r="I25" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="99" t="s">
-        <v>68</v>
       </c>
       <c r="K25" s="114"/>
       <c r="L25" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="N25" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="N25" s="99" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="115"/>
       <c r="B26" s="122"/>
       <c r="C26" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="70" t="n">
         <v>0</v>
@@ -8609,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="70" t="n">
         <v>0</v>
@@ -8622,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L26" s="70" t="n">
         <v>0</v>
@@ -8635,11 +8618,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" s="67" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="115"/>
       <c r="B27" s="122"/>
       <c r="C27" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="70" t="n">
         <v>0</v>
@@ -8652,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="70" t="n">
         <v>0</v>
@@ -8665,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="K27" s="117" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="70" t="n">
         <v>0</v>
@@ -8678,33 +8661,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" s="67" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="123"/>
       <c r="B28" s="124"/>
       <c r="C28" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="108"/>
       <c r="E28" s="108"/>
       <c r="F28" s="108"/>
       <c r="G28" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H28" s="108"/>
       <c r="I28" s="108"/>
       <c r="J28" s="108"/>
       <c r="K28" s="108" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L28" s="108"/>
       <c r="M28" s="108"/>
       <c r="N28" s="108"/>
     </row>
-    <row r="29" s="67" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="125"/>
       <c r="B29" s="126"/>
       <c r="C29" s="127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="127"/>
       <c r="E29" s="127"/>
@@ -8713,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H29" s="127"/>
       <c r="I29" s="127"/>
@@ -8722,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L29" s="127"/>
       <c r="M29" s="127"/>
@@ -8731,11 +8714,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" s="67" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="129"/>
       <c r="B30" s="130"/>
       <c r="C30" s="131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="131"/>
       <c r="E30" s="131"/>
@@ -8744,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H30" s="131"/>
       <c r="I30" s="131"/>
@@ -8753,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L30" s="131"/>
       <c r="M30" s="131"/>
@@ -8762,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" s="67" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="132"/>
       <c r="B31" s="133"/>
       <c r="C31" s="134" t="str">
@@ -8796,25 +8779,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" s="67" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="84"/>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
       <c r="D32" s="0"/>
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="57"/>
-      <c r="M32" s="57"/>
-      <c r="N32" s="57"/>
-    </row>
-    <row r="33" s="67" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B33" s="85"/>
       <c r="C33" s="85"/>
@@ -8824,18 +8799,10 @@
         <f aca="false">'Actual Exp Summary'!F27+'Actual Exp Summary'!G27</f>
         <v>0</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-    </row>
-    <row r="34" s="67" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="87" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="87"/>
       <c r="C34" s="87"/>
@@ -8845,48 +8812,24 @@
         <f aca="false">(F31+J31+N31)-F33</f>
         <v>0</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="57"/>
-    </row>
-    <row r="35" s="67" customFormat="true" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="0"/>
       <c r="C35" s="0"/>
       <c r="D35" s="0"/>
       <c r="E35" s="0"/>
       <c r="F35" s="0"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="57"/>
-      <c r="M35" s="57"/>
-      <c r="N35" s="57"/>
-    </row>
-    <row r="36" s="67" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="136" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B36" s="137"/>
       <c r="C36" s="137"/>
       <c r="D36" s="137"/>
       <c r="E36" s="137"/>
       <c r="F36" s="137"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="29">
